--- a/data/trans_bre/P1419-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1419-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.130614536220369</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.687769171864151</v>
+        <v>7.687769171864148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.924682617755063</v>
@@ -649,7 +649,7 @@
         <v>2.201434063577673</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.963792695467967</v>
+        <v>1.963792695467966</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.868978448836256</v>
+        <v>3.035325021327276</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.761486908759941</v>
+        <v>4.701224689605495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.259817332700187</v>
+        <v>1.258186688059665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.157845239541436</v>
+        <v>5.357252733147195</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7144136196159853</v>
+        <v>0.7457174039254559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.809263969515203</v>
+        <v>1.678492700139179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.507118369303981</v>
+        <v>0.5301306407112176</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.9477912359180334</v>
+        <v>1.036024169370672</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.543969580138683</v>
+        <v>7.471515341438343</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.507556576209678</v>
+        <v>9.531161606041358</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.109504988726001</v>
+        <v>5.174962960623546</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.03018279934155</v>
+        <v>9.945157613787579</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.240768981512235</v>
+        <v>3.964987195810981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9.724765568891627</v>
+        <v>10.32848059225406</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6.265334401517396</v>
+        <v>6.618708380969625</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.487889772129807</v>
+        <v>3.652458788753428</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.529013864128343</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.656078907417867</v>
+        <v>7.656078907417865</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.771977959465915</v>
@@ -749,7 +749,7 @@
         <v>7.462438748383775</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2.54814003315268</v>
+        <v>2.548140033152679</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.713553745066998</v>
+        <v>5.664658448030737</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.981325544318246</v>
+        <v>6.261313697767766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.833710432940915</v>
+        <v>4.826116971858229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.835443828885366</v>
+        <v>5.752153297319706</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.471486435751842</v>
+        <v>1.483297290380331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>3.614372627324715</v>
+        <v>3.633286594559123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>3.282203444902931</v>
+        <v>3.526304890304391</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.455215175534264</v>
+        <v>1.490014368945117</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.20343417120329</v>
+        <v>10.30250967793963</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.890102635378934</v>
+        <v>9.995788737431507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.622420494314655</v>
+        <v>8.516893076344955</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.504935433464606</v>
+        <v>9.316611103755063</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.039351961608767</v>
+        <v>4.912636196508384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>17.17927747751468</v>
+        <v>15.95201900198991</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>16.62223128540219</v>
+        <v>19.90434997638619</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.177243801130561</v>
+        <v>4.140369781078061</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.802100039431825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.071750027848936</v>
+        <v>7.071750027848937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.514884502906801</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.52121803342807</v>
+        <v>5.363537098001322</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.643977154165357</v>
+        <v>4.634793111835317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.259897650533409</v>
+        <v>1.08058248435339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.692427925885864</v>
+        <v>4.709840167967314</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.192000592306411</v>
+        <v>1.13200582534244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2.248599965343815</v>
+        <v>2.101260521729698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4806135755875048</v>
+        <v>0.4485857137700078</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.8123964771973576</v>
+        <v>0.8073927204354816</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.01680560678723</v>
+        <v>11.10609151445763</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.116812162605816</v>
+        <v>9.100928918021827</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.820996526880006</v>
+        <v>4.46755409274023</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.232754686496444</v>
+        <v>9.526185726114187</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.859353612969979</v>
+        <v>4.963530367000222</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>17.61598966594587</v>
+        <v>17.22564596750431</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.928163586774962</v>
+        <v>5.008447425931366</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.721513496562984</v>
+        <v>2.775558646374644</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.952622352161941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.038052765682804</v>
+        <v>6.038052765682802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.757030463422117</v>
@@ -949,7 +949,7 @@
         <v>2.075009656838391</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.46292691149588</v>
+        <v>1.462926911495879</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.698825241022552</v>
+        <v>6.676008765721201</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.987983698282314</v>
+        <v>5.096197387114188</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.985818972720198</v>
+        <v>2.932276806118962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.279821128209731</v>
+        <v>3.947607862904151</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.572939076620253</v>
+        <v>1.678696471026277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.804837943532018</v>
+        <v>2.624971107842414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.890352492441741</v>
+        <v>0.8688706900847342</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.8311063654794663</v>
+        <v>0.7483466697539951</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.32035286242528</v>
+        <v>11.30413788408987</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.671289955233966</v>
+        <v>8.950817681659396</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.051912201296143</v>
+        <v>6.9763616506944</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.027162593410054</v>
+        <v>7.909540979565678</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.352822698006098</v>
+        <v>4.971460684598639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15.65119069437392</v>
+        <v>15.08934127632714</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.291837542160589</v>
+        <v>4.092551859563987</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.505384121219107</v>
+        <v>2.466890538365161</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.564046803809926</v>
+        <v>6.558476996694306</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.256343986256422</v>
+        <v>6.287828590998358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.636728199414768</v>
+        <v>3.656158277035821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.002446280177197</v>
+        <v>6.053961326438075</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.875235963584481</v>
+        <v>1.838985328247398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3.979397797976016</v>
+        <v>4.086422462020176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.887443471997579</v>
+        <v>1.935489724788112</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.359234914473283</v>
+        <v>1.368734828333019</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.094755432116983</v>
+        <v>9.115717063216163</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.363214484514122</v>
+        <v>8.247080398265897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.502135164468615</v>
+        <v>5.662327245875969</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.027512286753009</v>
+        <v>8.062676401334535</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.490625525946128</v>
+        <v>3.502076004546864</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9.192487133788337</v>
+        <v>8.928805580510591</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.372793807676143</v>
+        <v>4.560353157206099</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.392375701919847</v>
+        <v>2.362402828893258</v>
       </c>
     </row>
     <row r="19">
